--- a/csv/ebay_steam1.xlsx
+++ b/csv/ebay_steam1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="3604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5085" uniqueCount="4135">
   <si>
     <t>http://www.ebay.com/itm/121531548699</t>
   </si>
@@ -10837,13 +10838,1606 @@
   </si>
   <si>
     <t>http://www.ebay.com/itm/122325326998</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title_clean</t>
+  </si>
+  <si>
+    <t>picture_hash</t>
+  </si>
+  <si>
+    <t>steam_link</t>
+  </si>
+  <si>
+    <t>Plantera PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Plantera</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/421040/</t>
+  </si>
+  <si>
+    <t>Hydrophobia: Prophecy PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Hydrophobia: Prophecy</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/92000/</t>
+  </si>
+  <si>
+    <t>Enforcer: Police Crime Action PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Enforcer: Police Crime Action</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/318220/</t>
+  </si>
+  <si>
+    <t>Jet Racing Extreme PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Jet Racing Extreme</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/385270/</t>
+  </si>
+  <si>
+    <t>hack_me PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>hack_me</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/526740/</t>
+  </si>
+  <si>
+    <t>The Falling Sun PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>The Falling Sun</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/333740/</t>
+  </si>
+  <si>
+    <t>Video blogger Story PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Video blogger Story</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/470600/</t>
+  </si>
+  <si>
+    <t>The Charnel House Trilogy PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>The Charnel House Trilogy</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/288930/</t>
+  </si>
+  <si>
+    <t>Industry Giant 2 PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Industry Giant 2</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/271360/</t>
+  </si>
+  <si>
+    <t>ArcaniA PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>ArcaniA</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/39690/</t>
+  </si>
+  <si>
+    <t>Shadow Man PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Shadow Man</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/251770/</t>
+  </si>
+  <si>
+    <t>Farming World PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Farming World</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/277500/</t>
+  </si>
+  <si>
+    <t>SATAZIUS PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>SATAZIUS</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/203990/</t>
+  </si>
+  <si>
+    <t>Squirbs PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Squirbs</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/429700/</t>
+  </si>
+  <si>
+    <t>Zombie Shooter 2 PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Zombie Shooter 2</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/33180/</t>
+  </si>
+  <si>
+    <t>Platypus PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Platypus</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/307340/</t>
+  </si>
+  <si>
+    <t>Raiden IV 5: OverKill PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Raiden IV 5: OverKill</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/323460/</t>
+  </si>
+  <si>
+    <t>We Are The Dwarves PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>We Are The Dwarves</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/395570/</t>
+  </si>
+  <si>
+    <t>The Tape PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>The Tape</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/387930/</t>
+  </si>
+  <si>
+    <t>Ducati World Championship PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Ducati World Championship</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/6270/</t>
+  </si>
+  <si>
+    <t>Stonerid PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Stonerid</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/315920/</t>
+  </si>
+  <si>
+    <t>Inescapable PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Inescapable</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/295610/</t>
+  </si>
+  <si>
+    <t>Pneuma: Breath of Life PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Pneuma: Breath of Life</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/347440/</t>
+  </si>
+  <si>
+    <t>Demon Hunter: Chronicles from Beyond PC spiel Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Demon Hunter: Chronicles from Beyond</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/330990/</t>
+  </si>
+  <si>
+    <t>Dark Matter PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/251410/</t>
+  </si>
+  <si>
+    <t>Gender Bender DNA Twister Extreme PC spiel Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Gender Bender DNA Twister Extreme</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/321060/</t>
+  </si>
+  <si>
+    <t>9 Clues 2: The Ward PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>9 Clues 2: The Ward</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/369420/</t>
+  </si>
+  <si>
+    <t>Guardians of Graxia PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Guardians of Graxia</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/90500/</t>
+  </si>
+  <si>
+    <t>Seven Kingdoms 2 II HD PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Seven Kingdoms 2 II HD</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/338800/</t>
+  </si>
+  <si>
+    <t>Point Perfect PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Point Perfect</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/303840/</t>
+  </si>
+  <si>
+    <t>House of Caravan PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>House of Caravan</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/353550/</t>
+  </si>
+  <si>
+    <t>Eador: Genesis PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Eador: Genesis</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/235660/</t>
+  </si>
+  <si>
+    <t>Cultures - Northland PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Cultures - Northland</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/351860/</t>
+  </si>
+  <si>
+    <t>Lightfish PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Lightfish</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/116120/</t>
+  </si>
+  <si>
+    <t>BlackSoul: Extended Edition PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>BlackSoul: Extended Edition</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/264480/</t>
+  </si>
+  <si>
+    <t>Mad Hunter PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Mad Hunter</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/558610/</t>
+  </si>
+  <si>
+    <t>Approaching Blocks PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Approaching Blocks</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/467390/</t>
+  </si>
+  <si>
+    <t>Gunnheim PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Gunnheim</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/371510/</t>
+  </si>
+  <si>
+    <t>Planet of the Eyes PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Planet of the Eyes</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/350970/</t>
+  </si>
+  <si>
+    <t>Age of Fear 2: The Chaos Lord PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Age of Fear 2: The Chaos Lord</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/341150/</t>
+  </si>
+  <si>
+    <t>The Nightmare Cooperative PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>The Nightmare Cooperative</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/310070/</t>
+  </si>
+  <si>
+    <t>C-RUSH PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>C-RUSH</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/262980/</t>
+  </si>
+  <si>
+    <t>Joe's Diner PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Joe's Diner</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/346040/</t>
+  </si>
+  <si>
+    <t>Rugby 15 PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Rugby 15</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/303820/</t>
+  </si>
+  <si>
+    <t>Dungeon Journey PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Dungeon Journey</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/485490/</t>
+  </si>
+  <si>
+    <t>Intensive Exposure PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Intensive Exposure</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/518670/</t>
+  </si>
+  <si>
+    <t>XIII Century – Gold Edition PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>XIII Century – Gold Edition</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/34420/</t>
+  </si>
+  <si>
+    <t>Asphyxia PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Asphyxia</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/386990/</t>
+  </si>
+  <si>
+    <t>Feel-A-Maze PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Feel-A-Maze</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/333870/</t>
+  </si>
+  <si>
+    <t>Maelstrom: The Battle for Earth Begins PC Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Maelstrom: The Battle for Earth Begins</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/11560/</t>
+  </si>
+  <si>
+    <t>Moonlight PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/434410/</t>
+  </si>
+  <si>
+    <t>Pumped BMX + PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Pumped BMX +</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/392070/</t>
+  </si>
+  <si>
+    <t>Cultures - 8th Wonder of the World PC spiel Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Cultures - 8th Wonder of the World</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/351870/</t>
+  </si>
+  <si>
+    <t>Big Brain Wolf PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Big Brain Wolf</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/35600/</t>
+  </si>
+  <si>
+    <t>X-note PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>X-note</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/337940/</t>
+  </si>
+  <si>
+    <t>Abalone PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Abalone</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/279480/</t>
+  </si>
+  <si>
+    <t>Angry Arrows PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Angry Arrows</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/390890/</t>
+  </si>
+  <si>
+    <t>The Emerald Maiden: Symphony of Dreams PC Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>The Emerald Maiden: Symphony of Dreams</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/429610/</t>
+  </si>
+  <si>
+    <t>Concursion PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Concursion</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/303340/</t>
+  </si>
+  <si>
+    <t>World War I PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>World War I</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/361380/</t>
+  </si>
+  <si>
+    <t>Galactic Arms Race PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Galactic Arms Race</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/249610/</t>
+  </si>
+  <si>
+    <t>Predator Simulator PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Predator Simulator</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/369100/</t>
+  </si>
+  <si>
+    <t>Stardust Vanguards PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Stardust Vanguards</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/341530/</t>
+  </si>
+  <si>
+    <t>Mighty Dungeons PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Mighty Dungeons</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/349550/</t>
+  </si>
+  <si>
+    <t>Goosebumps: The Game PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Goosebumps: The Game</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/361360/</t>
+  </si>
+  <si>
+    <t>Culpa Innata PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Culpa Innata</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/12310/</t>
+  </si>
+  <si>
+    <t>Between Me and The Night PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Between Me and The Night</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/285070/</t>
+  </si>
+  <si>
+    <t>Blacksea Odyssey PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Blacksea Odyssey</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/369550/</t>
+  </si>
+  <si>
+    <t>Dark Quest PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Dark Quest</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/342860/</t>
+  </si>
+  <si>
+    <t>Warfare PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Warfare</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/35300/</t>
+  </si>
+  <si>
+    <t>Galactic Inheritors PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Galactic Inheritors</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/322540/</t>
+  </si>
+  <si>
+    <t>New York Bus Simulator PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>New York Bus Simulator</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/283580/</t>
+  </si>
+  <si>
+    <t>Othello PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Othello</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/307430/</t>
+  </si>
+  <si>
+    <t>Hiiro PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Hiiro</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/464960/</t>
+  </si>
+  <si>
+    <t>Krai Mira PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Krai Mira</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/408920/</t>
+  </si>
+  <si>
+    <t>Pride of Nations PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Pride of Nations</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/73190/</t>
+  </si>
+  <si>
+    <t>Galacide PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Galacide</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/356790/</t>
+  </si>
+  <si>
+    <t>Into the Void PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Into the Void</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/420270/</t>
+  </si>
+  <si>
+    <t>Clash of Puppets PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Clash of Puppets</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/325870/</t>
+  </si>
+  <si>
+    <t>CO-OP : Decrypted PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>CO-OP : Decrypted</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/315130/</t>
+  </si>
+  <si>
+    <t>Bard to the Future PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Bard to the Future</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/337110/</t>
+  </si>
+  <si>
+    <t>Curse of the Crescent Isle DX PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Curse of the Crescent Isle DX</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/365120/</t>
+  </si>
+  <si>
+    <t>Krampus PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Krampus</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/541100/</t>
+  </si>
+  <si>
+    <t>One Final Breath™ PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>One Final Breath™</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/387070/</t>
+  </si>
+  <si>
+    <t>Real Warfare 1242 PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Real Warfare 1242</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/46350/</t>
+  </si>
+  <si>
+    <t>Deep Under the Sky PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Deep Under the Sky</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/315650/</t>
+  </si>
+  <si>
+    <t>Quarries of Scred PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Quarries of Scred</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/346770/</t>
+  </si>
+  <si>
+    <t>StuntMANIA Reloaded PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>StuntMANIA Reloaded</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/324750/</t>
+  </si>
+  <si>
+    <t>Avenging Angel PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Avenging Angel</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/367240/</t>
+  </si>
+  <si>
+    <t>Midnight Mysteries 3: Devil on the Mississippi PC Steam Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Midnight Mysteries 3: Devil on the Mississippi</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/208630/</t>
+  </si>
+  <si>
+    <t>The Lost Souls PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>The Lost Souls</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/453670/</t>
+  </si>
+  <si>
+    <t>Farm Mechanic Simulator 2015 PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Farm Mechanic Simulator 2015</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/324050/</t>
+  </si>
+  <si>
+    <t>Lovely Weather We're Having PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Lovely Weather We're Having</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/404150/</t>
+  </si>
+  <si>
+    <t>Chainsaw Warrior: Lords of the Night PC spiel Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Chainsaw Warrior: Lords of the Night</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/307600/</t>
+  </si>
+  <si>
+    <t>Zombie Wars: Invasion PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Zombie Wars: Invasion</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/429060/</t>
+  </si>
+  <si>
+    <t>Club Life PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Club Life</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/404180/</t>
+  </si>
+  <si>
+    <t>TRIP Steam Edition PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>TRIP Steam Edition</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/341540/</t>
+  </si>
+  <si>
+    <t>Weird Park Trilogy PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Weird Park Trilogy</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/372260/</t>
+  </si>
+  <si>
+    <t>Yargis - Space Melee PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Yargis - Space Melee</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/369040/</t>
+  </si>
+  <si>
+    <t>A.I.M. Racing PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>A.I.M. Racing</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/46200/</t>
+  </si>
+  <si>
+    <t>Glass Wing PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Glass Wing</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/382570/</t>
+  </si>
+  <si>
+    <t>Labyrinth Simulator PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Labyrinth Simulator</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/391520/</t>
+  </si>
+  <si>
+    <t>Witch's Pranks: Frog's Fortune Collector's Edition PC Steam Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Witch's Pranks: Frog's Fortune Collector's Edition</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/342630/</t>
+  </si>
+  <si>
+    <t>Sea Legends: Phantasmal Light Collector's Edition PC Steam Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Sea Legends: Phantasmal Light Collector's Edition</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/323280/</t>
+  </si>
+  <si>
+    <t>123 Slaughter Me Street 2 PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>123 Slaughter Me Street 2</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/551190/</t>
+  </si>
+  <si>
+    <t>Auro: A Monster-Bumping Adventure PC spiel Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Auro: A Monster-Bumping Adventure</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/459680/</t>
+  </si>
+  <si>
+    <t>Caveman Craig PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Caveman Craig</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/363240/</t>
+  </si>
+  <si>
+    <t>DreamBreak PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>DreamBreak</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/443570/</t>
+  </si>
+  <si>
+    <t>Eradicator PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Eradicator</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/329640/</t>
+  </si>
+  <si>
+    <t>Odysseus: Long Way Home PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Odysseus: Long Way Home</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/348960/</t>
+  </si>
+  <si>
+    <t>Rubber and Lead PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Rubber and Lead</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/389810/</t>
+  </si>
+  <si>
+    <t>Sprint Cars Road to Knoxville PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Sprint Cars Road to Knoxville</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/12590/</t>
+  </si>
+  <si>
+    <t>Blasters of the Universe PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Blasters of the Universe</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/490490/</t>
+  </si>
+  <si>
+    <t>Dinocide PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Dinocide</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/423900/</t>
+  </si>
+  <si>
+    <t>Grand Class Melee 2 PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Grand Class Melee 2</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/340440/</t>
+  </si>
+  <si>
+    <t>Luxor 3 PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Luxor 3</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/15930/</t>
+  </si>
+  <si>
+    <t>Princess Isabella - Return of the Curse PC Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Princess Isabella - Return of the Curse</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/292670/</t>
+  </si>
+  <si>
+    <t>Starship Traveller PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Starship Traveller</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/348180/</t>
+  </si>
+  <si>
+    <t>7 Wonders of the Ancient World PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>7 Wonders of the Ancient World</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/275810/</t>
+  </si>
+  <si>
+    <t>Cyberpunk 3776 PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Cyberpunk 3776</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/343170/</t>
+  </si>
+  <si>
+    <t>Human Extinction Simulator PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Human Extinction Simulator</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/342500/</t>
+  </si>
+  <si>
+    <t>IHF Handball Challenge 14 PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>IHF Handball Challenge 14</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/279460/</t>
+  </si>
+  <si>
+    <t>Island Defense PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Island Defense</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/375850/</t>
+  </si>
+  <si>
+    <t>Loot Hunter PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Loot Hunter</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/341470/</t>
+  </si>
+  <si>
+    <t>A.I. Invasion PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>A.I. Invasion</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/386540/</t>
+  </si>
+  <si>
+    <t>Data Hacker: Corruption PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Data Hacker: Corruption</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/329000/</t>
+  </si>
+  <si>
+    <t>Mutant Storm: Reloaded PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Mutant Storm: Reloaded</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/110630/</t>
+  </si>
+  <si>
+    <t>1953: NATO vs Warsaw Pact PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>1953: NATO vs Warsaw Pact</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/325470/</t>
+  </si>
+  <si>
+    <t>Centauri Sector PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Centauri Sector</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/355810/</t>
+  </si>
+  <si>
+    <t>Spectre PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Spectre</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/314950/</t>
+  </si>
+  <si>
+    <t>The Troma Project PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>The Troma Project</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/279640/</t>
+  </si>
+  <si>
+    <t>Power of Love PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Power of Love</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/368710/</t>
+  </si>
+  <si>
+    <t>Soccertron PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Soccertron</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/334620/</t>
+  </si>
+  <si>
+    <t>Vertex Dispenser PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Vertex Dispenser</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/102400/</t>
+  </si>
+  <si>
+    <t>Castle Chaos PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Castle Chaos</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/412410/</t>
+  </si>
+  <si>
+    <t>Winter Sports Trilogy Super Pack PC spiel Steam Download Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Winter Sports Trilogy Super Pack</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/374090/</t>
+  </si>
+  <si>
+    <t>Legions of Steel PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Legions of Steel</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/312440/</t>
+  </si>
+  <si>
+    <t>Second Warfare PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Second Warfare</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/372740/</t>
+  </si>
+  <si>
+    <t>So Much Blood PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>So Much Blood</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/476450/</t>
+  </si>
+  <si>
+    <t>Cosmo's Cosmic Adventure PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Cosmo's Cosmic Adventure</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/358250/</t>
+  </si>
+  <si>
+    <t>Dark Gates PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Dark Gates</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/333730/</t>
+  </si>
+  <si>
+    <t>Hyperspace Pinball PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Hyperspace Pinball</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/349020/</t>
+  </si>
+  <si>
+    <t>Hyposphere PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Hyposphere</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/461880/</t>
+  </si>
+  <si>
+    <t>Keen Dreams PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Keen Dreams</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/356200/</t>
+  </si>
+  <si>
+    <t>Octave PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Octave</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/537700/</t>
+  </si>
+  <si>
+    <t>The Land Of Lamia PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>The Land Of Lamia</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/385310/</t>
+  </si>
+  <si>
+    <t>Trap Them PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Trap Them</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/375930/</t>
+  </si>
+  <si>
+    <t>Fermi's Path PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Fermi's Path</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/342650/</t>
+  </si>
+  <si>
+    <t>The Grandfather PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>The Grandfather</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/433750/</t>
+  </si>
+  <si>
+    <t>Inverted PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Inverted</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/496870/</t>
+  </si>
+  <si>
+    <t>Ranger of the jungle PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Ranger of the jungle</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/495010/</t>
+  </si>
+  <si>
+    <t>Scapeland PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Scapeland</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/444440/</t>
+  </si>
+  <si>
+    <t>Steam and Metal PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Steam and Metal</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/335010/</t>
+  </si>
+  <si>
+    <t>Space Robot Samurai Zombie Slayer PC spiel Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Space Robot Samurai Zombie Slayer</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/364100/</t>
+  </si>
+  <si>
+    <t>Teddy Terror PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Teddy Terror</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/366060/</t>
+  </si>
+  <si>
+    <t>The Living Dungeon PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>The Living Dungeon</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/362290/</t>
+  </si>
+  <si>
+    <t>Under Zero PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Under Zero</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/454930/</t>
+  </si>
+  <si>
+    <t>Amigdala PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Amigdala</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/450110/</t>
+  </si>
+  <si>
+    <t>Midnight Outlaw: 6 Hours to SunUp PC spiel Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Midnight Outlaw: 6 Hours to SunUp</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/12600/</t>
+  </si>
+  <si>
+    <t>Monsti PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Monsti</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/526790/</t>
+  </si>
+  <si>
+    <t>Rover Rescue PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Rover Rescue</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/286440/</t>
+  </si>
+  <si>
+    <t>Snik PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Snik</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/388050/</t>
+  </si>
+  <si>
+    <t>Zoo Empire PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Zoo Empire</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/286750/</t>
+  </si>
+  <si>
+    <t>Abduction Action! Plus PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Abduction Action! Plus</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/360580/</t>
+  </si>
+  <si>
+    <t>Blowy Fish PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Blowy Fish</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/399920/</t>
+  </si>
+  <si>
+    <t>Goblin Defenders: Steel‘n’ Wood PC spiel Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Goblin Defenders: Steel‘n’ Wood</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/416310/</t>
+  </si>
+  <si>
+    <t>Moorhuhn Invasion (Crazy Chicken Invasion) PC Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Moorhuhn Invasion (Crazy Chicken Invasion)</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/340130/</t>
+  </si>
+  <si>
+    <t>Ride the Bullet PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Ride the Bullet</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/364130/</t>
+  </si>
+  <si>
+    <t>Spy Fox In: Cheese Chase PC spiel Steam Download Digital Link DE/EU/USA Key Code</t>
+  </si>
+  <si>
+    <t>Spy Fox In: Cheese Chase</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/292280/</t>
+  </si>
+  <si>
+    <t>Agricultural Simulator 2012: Deluxe Edition PC Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Agricultural Simulator 2012: Deluxe Edition</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/273790/</t>
+  </si>
+  <si>
+    <t>Desert Law PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Desert Law</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/356280/</t>
+  </si>
+  <si>
+    <t>Miner Wars Arena PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Miner Wars Arena</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/219070/</t>
+  </si>
+  <si>
+    <t>Rex Nebular and the Cosmic Gender Bender PC Steam Download Link DE/EU/USA Key</t>
+  </si>
+  <si>
+    <t>Rex Nebular and the Cosmic Gender Bender</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/328430/</t>
+  </si>
+  <si>
+    <t>Overhell PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Overhell</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/477980/</t>
+  </si>
+  <si>
+    <t>Pillar PC spiel Steam Download Digital Link DE/EU/USA Key Code Gift</t>
+  </si>
+  <si>
+    <t>Pillar</t>
+  </si>
+  <si>
+    <t>http://store.steampowered.com/app/371900/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10875,6 +12469,21 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -10890,7 +12499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -10898,12 +12507,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF777777"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF777777"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF777777"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF777777"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10921,6 +12545,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -35202,8 +36838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35339,4 +36975,3727 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="98.42578125" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3607</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3608</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1299</v>
+      </c>
+      <c r="C2" s="12">
+        <v>122348493649</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3611</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3612</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1516</v>
+      </c>
+      <c r="C3" s="12">
+        <v>122352311179</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3614</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3615</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1545</v>
+      </c>
+      <c r="C4" s="12">
+        <v>112300447656</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3617</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>3618</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1574</v>
+      </c>
+      <c r="C5" s="12">
+        <v>112300481709</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3620</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>3621</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1582</v>
+      </c>
+      <c r="C6" s="12">
+        <v>122352472961</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3623</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3624</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1636</v>
+      </c>
+      <c r="C7" s="12">
+        <v>122352672112</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>3627</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1651</v>
+      </c>
+      <c r="C8" s="12">
+        <v>122352730610</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>3629</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3630</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1675</v>
+      </c>
+      <c r="C9" s="12">
+        <v>112300641382</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>3632</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>3633</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1826</v>
+      </c>
+      <c r="C10" s="12">
+        <v>122353674006</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>3636</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1958</v>
+      </c>
+      <c r="C11" s="12">
+        <v>112302312366</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>3639</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="12">
+        <v>112303282827</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>3642</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2225</v>
+      </c>
+      <c r="C13" s="12">
+        <v>122357881226</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>3644</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>3645</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2291</v>
+      </c>
+      <c r="C14" s="12">
+        <v>122358603219</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>3647</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>3648</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2299</v>
+      </c>
+      <c r="C15" s="12">
+        <v>112305873034</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>3651</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2308</v>
+      </c>
+      <c r="C16" s="12">
+        <v>112305927499</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>3653</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>3654</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2313</v>
+      </c>
+      <c r="C17" s="12">
+        <v>122358674343</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3656</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>3657</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2315</v>
+      </c>
+      <c r="C18" s="12">
+        <v>112305941713</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>3659</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>3660</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2416</v>
+      </c>
+      <c r="C19" s="12">
+        <v>122359127153</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>3662</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>3663</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2419</v>
+      </c>
+      <c r="C20" s="12">
+        <v>122359128924</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>3665</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2420</v>
+      </c>
+      <c r="C21" s="12">
+        <v>112306447002</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2425</v>
+      </c>
+      <c r="C22" s="12">
+        <v>112306448675</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>26</v>
+      </c>
+      <c r="C23" s="12">
+        <v>122365901825</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>3674</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>3675</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12">
+        <v>112311029519</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>3677</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>3678</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>157</v>
+      </c>
+      <c r="C25" s="12">
+        <v>122368122751</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>3680</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>3681</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2432</v>
+      </c>
+      <c r="C26" s="12">
+        <v>122359133356</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2457</v>
+      </c>
+      <c r="C27" s="12">
+        <v>122359280519</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>3685</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>3686</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2472</v>
+      </c>
+      <c r="C28" s="12">
+        <v>122359290146</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>3689</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2479</v>
+      </c>
+      <c r="C29" s="12">
+        <v>122359302220</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>3691</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>3692</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2513</v>
+      </c>
+      <c r="C30" s="12">
+        <v>112306606839</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>3695</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2514</v>
+      </c>
+      <c r="C31" s="12">
+        <v>112306607119</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2922</v>
+      </c>
+      <c r="C32" s="12">
+        <v>112310020931</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>3701</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2929</v>
+      </c>
+      <c r="C33" s="12">
+        <v>122363855170</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>3703</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>3704</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2947</v>
+      </c>
+      <c r="C34" s="12">
+        <v>112310066028</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>3706</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>3707</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2962</v>
+      </c>
+      <c r="C35" s="12">
+        <v>122364753192</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>3709</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>3710</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>175</v>
+      </c>
+      <c r="C36" s="12">
+        <v>112312535392</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>192</v>
+      </c>
+      <c r="C37" s="12">
+        <v>112312548408</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>3715</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>3716</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>247</v>
+      </c>
+      <c r="C38" s="12">
+        <v>122371261651</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>3718</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>3719</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>257</v>
+      </c>
+      <c r="C39" s="12">
+        <v>112315590213</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>3721</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>3722</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>259</v>
+      </c>
+      <c r="C40" s="12">
+        <v>122371284781</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>3725</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <v>280</v>
+      </c>
+      <c r="C41" s="12">
+        <v>112315688647</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>3727</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>3728</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>286</v>
+      </c>
+      <c r="C42" s="12">
+        <v>122371373021</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>3731</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <v>300</v>
+      </c>
+      <c r="C43" s="12">
+        <v>112315852118</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>301</v>
+      </c>
+      <c r="C44" s="12">
+        <v>122371526471</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>307</v>
+      </c>
+      <c r="C45" s="12">
+        <v>112315876030</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>3739</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>3740</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <v>311</v>
+      </c>
+      <c r="C46" s="12">
+        <v>112315878573</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>3743</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>312</v>
+      </c>
+      <c r="C47" s="12">
+        <v>122371541567</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>3745</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>3746</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>316</v>
+      </c>
+      <c r="C48" s="12">
+        <v>112315890396</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>317</v>
+      </c>
+      <c r="C49" s="12">
+        <v>112315890688</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <v>321</v>
+      </c>
+      <c r="C50" s="12">
+        <v>112315892145</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>3754</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>3755</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>322</v>
+      </c>
+      <c r="C51" s="12">
+        <v>112315892303</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>3757</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>3758</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <v>323</v>
+      </c>
+      <c r="C52" s="12">
+        <v>122371547544</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>3761</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <v>324</v>
+      </c>
+      <c r="C53" s="12">
+        <v>122371547981</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <v>344</v>
+      </c>
+      <c r="C54" s="12">
+        <v>122372277253</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>3766</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <v>488</v>
+      </c>
+      <c r="C55" s="12">
+        <v>112316516551</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>3770</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11">
+        <v>514</v>
+      </c>
+      <c r="C56" s="12">
+        <v>112316602546</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>3772</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>3773</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11">
+        <v>549</v>
+      </c>
+      <c r="C57" s="12">
+        <v>122373018350</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>3775</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>3776</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11">
+        <v>550</v>
+      </c>
+      <c r="C58" s="12">
+        <v>112317049029</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>3779</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11">
+        <v>553</v>
+      </c>
+      <c r="C59" s="12">
+        <v>122373078681</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11">
+        <v>602</v>
+      </c>
+      <c r="C60" s="12">
+        <v>112318894354</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>3784</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>3785</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11">
+        <v>608</v>
+      </c>
+      <c r="C61" s="12">
+        <v>112318905016</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>3788</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11">
+        <v>611</v>
+      </c>
+      <c r="C62" s="12">
+        <v>122375573464</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>3791</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11">
+        <v>612</v>
+      </c>
+      <c r="C63" s="12">
+        <v>112318933559</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>3793</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>3794</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11">
+        <v>630</v>
+      </c>
+      <c r="C64" s="12">
+        <v>112319015915</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>3796</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>3797</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11">
+        <v>636</v>
+      </c>
+      <c r="C65" s="12">
+        <v>122375719193</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>3799</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>3800</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11">
+        <v>648</v>
+      </c>
+      <c r="C66" s="12">
+        <v>112320391007</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11">
+        <v>663</v>
+      </c>
+      <c r="C67" s="12">
+        <v>122377608922</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>3805</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>3806</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11">
+        <v>683</v>
+      </c>
+      <c r="C68" s="12">
+        <v>112321005448</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>3809</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11">
+        <v>684</v>
+      </c>
+      <c r="C69" s="12">
+        <v>112321005619</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>3811</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>3812</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11">
+        <v>687</v>
+      </c>
+      <c r="C70" s="12">
+        <v>112321006298</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>3814</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>3815</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11">
+        <v>699</v>
+      </c>
+      <c r="C71" s="12">
+        <v>112321014027</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11">
+        <v>717</v>
+      </c>
+      <c r="C72" s="12">
+        <v>112321646153</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11">
+        <v>728</v>
+      </c>
+      <c r="C73" s="12">
+        <v>112321660117</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>3823</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>3824</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11">
+        <v>730</v>
+      </c>
+      <c r="C74" s="12">
+        <v>112321661131</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>3827</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11">
+        <v>745</v>
+      </c>
+      <c r="C75" s="12">
+        <v>122379230727</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>3830</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11">
+        <v>758</v>
+      </c>
+      <c r="C76" s="12">
+        <v>122379267177</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>3833</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11">
+        <v>768</v>
+      </c>
+      <c r="C77" s="12">
+        <v>112322327451</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>3836</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="11">
+        <v>783</v>
+      </c>
+      <c r="C78" s="12">
+        <v>112322338336</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>3839</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11">
+        <v>796</v>
+      </c>
+      <c r="C79" s="12">
+        <v>122380393539</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>3842</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="11">
+        <v>800</v>
+      </c>
+      <c r="C80" s="12">
+        <v>112322352236</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11">
+        <v>801</v>
+      </c>
+      <c r="C81" s="12">
+        <v>112322352612</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>3848</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11" t="s">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11">
+        <v>821</v>
+      </c>
+      <c r="C82" s="12">
+        <v>112322849074</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>3851</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="11">
+        <v>835</v>
+      </c>
+      <c r="C83" s="12">
+        <v>112322859847</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>3854</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="11">
+        <v>839</v>
+      </c>
+      <c r="C84" s="12">
+        <v>112322863126</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>3856</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="11">
+        <v>853</v>
+      </c>
+      <c r="C85" s="12">
+        <v>122381402518</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>3860</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="11">
+        <v>854</v>
+      </c>
+      <c r="C86" s="12">
+        <v>122381421442</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="11">
+        <v>901</v>
+      </c>
+      <c r="C87" s="12">
+        <v>112325645193</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>3865</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>3866</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="11">
+        <v>905</v>
+      </c>
+      <c r="C88" s="12">
+        <v>112325648011</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="11">
+        <v>908</v>
+      </c>
+      <c r="C89" s="12">
+        <v>112325649311</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>3871</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>3872</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="11">
+        <v>927</v>
+      </c>
+      <c r="C90" s="12">
+        <v>112325717272</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>3874</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>3875</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="11">
+        <v>931</v>
+      </c>
+      <c r="C91" s="12">
+        <v>112325720330</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+      <c r="B92" s="11">
+        <v>934</v>
+      </c>
+      <c r="C92" s="12">
+        <v>122385195341</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+      <c r="B93" s="11">
+        <v>941</v>
+      </c>
+      <c r="C93" s="12">
+        <v>112325754435</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>3884</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+      <c r="B94" s="11">
+        <v>944</v>
+      </c>
+      <c r="C94" s="12">
+        <v>122385211752</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>3886</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+      <c r="B95" s="11">
+        <v>958</v>
+      </c>
+      <c r="C95" s="12">
+        <v>112325770876</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+      <c r="B96" s="11">
+        <v>968</v>
+      </c>
+      <c r="C96" s="12">
+        <v>122385264782</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>3892</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+      <c r="B97" s="11">
+        <v>971</v>
+      </c>
+      <c r="C97" s="12">
+        <v>122385266652</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>3896</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+      <c r="B98" s="11">
+        <v>1060</v>
+      </c>
+      <c r="C98" s="12">
+        <v>112326219102</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>3898</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>3899</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="11">
+        <v>1062</v>
+      </c>
+      <c r="C99" s="12">
+        <v>112326221082</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>3901</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>3902</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+      <c r="B100" s="11">
+        <v>1063</v>
+      </c>
+      <c r="C100" s="12">
+        <v>122385709148</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>3905</v>
+      </c>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="11">
+        <v>1075</v>
+      </c>
+      <c r="C101" s="12">
+        <v>112327267388</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+      <c r="B102" s="11">
+        <v>1076</v>
+      </c>
+      <c r="C102" s="12">
+        <v>122386832700</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>3910</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+      <c r="B103" s="11">
+        <v>1079</v>
+      </c>
+      <c r="C103" s="12">
+        <v>122386840518</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>3913</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+      <c r="B104" s="11">
+        <v>1087</v>
+      </c>
+      <c r="C104" s="12">
+        <v>112327286771</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+      <c r="B105" s="11">
+        <v>1096</v>
+      </c>
+      <c r="C105" s="12">
+        <v>122386870798</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>3919</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
+      <c r="B106" s="11">
+        <v>1101</v>
+      </c>
+      <c r="C106" s="12">
+        <v>122386876794</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>3922</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+      <c r="B107" s="11">
+        <v>1103</v>
+      </c>
+      <c r="C107" s="12">
+        <v>112327309962</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>3925</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>3926</v>
+      </c>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+      <c r="B108" s="11">
+        <v>1107</v>
+      </c>
+      <c r="C108" s="12">
+        <v>112327312745</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>3929</v>
+      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+      <c r="B109" s="11">
+        <v>1109</v>
+      </c>
+      <c r="C109" s="12">
+        <v>112327313702</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>3931</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>3932</v>
+      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>109</v>
+      </c>
+      <c r="B110" s="11">
+        <v>1110</v>
+      </c>
+      <c r="C110" s="12">
+        <v>122386883063</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>3934</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>3935</v>
+      </c>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11">
+        <v>110</v>
+      </c>
+      <c r="B111" s="11">
+        <v>1129</v>
+      </c>
+      <c r="C111" s="12">
+        <v>112329066607</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>3937</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>3938</v>
+      </c>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+      <c r="B112" s="11">
+        <v>1131</v>
+      </c>
+      <c r="C112" s="12">
+        <v>112329069484</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>112</v>
+      </c>
+      <c r="B113" s="11">
+        <v>1136</v>
+      </c>
+      <c r="C113" s="12">
+        <v>112329073439</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>3943</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>3944</v>
+      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>113</v>
+      </c>
+      <c r="B114" s="11">
+        <v>1140</v>
+      </c>
+      <c r="C114" s="12">
+        <v>112329092632</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>3946</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>3947</v>
+      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>114</v>
+      </c>
+      <c r="B115" s="11">
+        <v>1144</v>
+      </c>
+      <c r="C115" s="12">
+        <v>112329097160</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>3950</v>
+      </c>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>115</v>
+      </c>
+      <c r="B116" s="11">
+        <v>1147</v>
+      </c>
+      <c r="C116" s="12">
+        <v>112329103792</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>3952</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>3953</v>
+      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>116</v>
+      </c>
+      <c r="B117" s="11">
+        <v>1151</v>
+      </c>
+      <c r="C117" s="12">
+        <v>112329110418</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>3955</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>3956</v>
+      </c>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>117</v>
+      </c>
+      <c r="B118" s="11">
+        <v>1153</v>
+      </c>
+      <c r="C118" s="12">
+        <v>122389001556</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>3958</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>3959</v>
+      </c>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>118</v>
+      </c>
+      <c r="B119" s="11">
+        <v>1154</v>
+      </c>
+      <c r="C119" s="12">
+        <v>122389002246</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>3961</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>3962</v>
+      </c>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>119</v>
+      </c>
+      <c r="B120" s="11">
+        <v>1157</v>
+      </c>
+      <c r="C120" s="12">
+        <v>112329125150</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>3964</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>3965</v>
+      </c>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
+      <c r="B121" s="11">
+        <v>1158</v>
+      </c>
+      <c r="C121" s="12">
+        <v>122389009994</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>3967</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>121</v>
+      </c>
+      <c r="B122" s="11">
+        <v>1163</v>
+      </c>
+      <c r="C122" s="12">
+        <v>112329130766</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>3970</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>3971</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+      <c r="B123" s="11">
+        <v>1164</v>
+      </c>
+      <c r="C123" s="12">
+        <v>122389015866</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>3973</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>3974</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
+        <v>123</v>
+      </c>
+      <c r="B124" s="11">
+        <v>1167</v>
+      </c>
+      <c r="C124" s="12">
+        <v>122389025535</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>3976</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11">
+        <v>124</v>
+      </c>
+      <c r="B125" s="11">
+        <v>1168</v>
+      </c>
+      <c r="C125" s="12">
+        <v>122389028368</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>3979</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>3980</v>
+      </c>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
+        <v>125</v>
+      </c>
+      <c r="B126" s="11">
+        <v>1177</v>
+      </c>
+      <c r="C126" s="12">
+        <v>112329144539</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>3982</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>3983</v>
+      </c>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11">
+        <v>126</v>
+      </c>
+      <c r="B127" s="11">
+        <v>1687</v>
+      </c>
+      <c r="C127" s="12">
+        <v>122396825963</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>3985</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>3986</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11">
+        <v>127</v>
+      </c>
+      <c r="B128" s="11">
+        <v>1695</v>
+      </c>
+      <c r="C128" s="12">
+        <v>112334178835</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>3988</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>3989</v>
+      </c>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11">
+        <v>128</v>
+      </c>
+      <c r="B129" s="11">
+        <v>1700</v>
+      </c>
+      <c r="C129" s="12">
+        <v>122396877207</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>3991</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>3992</v>
+      </c>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11">
+        <v>129</v>
+      </c>
+      <c r="B130" s="11">
+        <v>1704</v>
+      </c>
+      <c r="C130" s="12">
+        <v>122396884926</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>3995</v>
+      </c>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11">
+        <v>130</v>
+      </c>
+      <c r="B131" s="11">
+        <v>1887</v>
+      </c>
+      <c r="C131" s="12">
+        <v>112335097856</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>3997</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>3998</v>
+      </c>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11">
+        <v>131</v>
+      </c>
+      <c r="B132" s="11">
+        <v>1890</v>
+      </c>
+      <c r="C132" s="12">
+        <v>122398267581</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>4000</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>4001</v>
+      </c>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11">
+        <v>132</v>
+      </c>
+      <c r="B133" s="11">
+        <v>1920</v>
+      </c>
+      <c r="C133" s="12">
+        <v>122398293176</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>4003</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>4004</v>
+      </c>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11">
+        <v>133</v>
+      </c>
+      <c r="B134" s="11">
+        <v>1922</v>
+      </c>
+      <c r="C134" s="12">
+        <v>122398295306</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>4006</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>4007</v>
+      </c>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11">
+        <v>134</v>
+      </c>
+      <c r="B135" s="11">
+        <v>2043</v>
+      </c>
+      <c r="C135" s="12">
+        <v>112337188791</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>4009</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>4010</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+      <c r="B136" s="11">
+        <v>2046</v>
+      </c>
+      <c r="C136" s="12">
+        <v>112337195681</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>4012</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>4013</v>
+      </c>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="11">
+        <v>136</v>
+      </c>
+      <c r="B137" s="11">
+        <v>2053</v>
+      </c>
+      <c r="C137" s="12">
+        <v>122400790206</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>4015</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>4016</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="11">
+        <v>137</v>
+      </c>
+      <c r="B138" s="11">
+        <v>2057</v>
+      </c>
+      <c r="C138" s="12">
+        <v>112337233375</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>4018</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>4019</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="11">
+        <v>2061</v>
+      </c>
+      <c r="C139" s="12">
+        <v>122400857803</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>4021</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>4022</v>
+      </c>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+      <c r="B140" s="11">
+        <v>2065</v>
+      </c>
+      <c r="C140" s="12">
+        <v>122400862290</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>4024</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>4025</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+      <c r="B141" s="11">
+        <v>2069</v>
+      </c>
+      <c r="C141" s="12">
+        <v>122400887850</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>4027</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>4028</v>
+      </c>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+      <c r="B142" s="11">
+        <v>2072</v>
+      </c>
+      <c r="C142" s="12">
+        <v>122400911983</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="11">
+        <v>142</v>
+      </c>
+      <c r="B143" s="11">
+        <v>2074</v>
+      </c>
+      <c r="C143" s="12">
+        <v>112337321425</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>4033</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>4034</v>
+      </c>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+      <c r="B144" s="11">
+        <v>2076</v>
+      </c>
+      <c r="C144" s="12">
+        <v>122400928113</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="11">
+        <v>144</v>
+      </c>
+      <c r="B145" s="11">
+        <v>2077</v>
+      </c>
+      <c r="C145" s="12">
+        <v>122400929134</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>4039</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>4040</v>
+      </c>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="11">
+        <v>145</v>
+      </c>
+      <c r="B146" s="11">
+        <v>2081</v>
+      </c>
+      <c r="C146" s="12">
+        <v>112337332698</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>4042</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>4043</v>
+      </c>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="11">
+        <v>146</v>
+      </c>
+      <c r="B147" s="11">
+        <v>2084</v>
+      </c>
+      <c r="C147" s="12">
+        <v>122400937677</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>4046</v>
+      </c>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+      <c r="B148" s="11">
+        <v>2086</v>
+      </c>
+      <c r="C148" s="12">
+        <v>122400938507</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>4049</v>
+      </c>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+      <c r="B149" s="11">
+        <v>2098</v>
+      </c>
+      <c r="C149" s="12">
+        <v>122400973001</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>4051</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>4052</v>
+      </c>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="11">
+        <v>149</v>
+      </c>
+      <c r="B150" s="11">
+        <v>2353</v>
+      </c>
+      <c r="C150" s="12">
+        <v>112339662622</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>4055</v>
+      </c>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+      <c r="B151" s="11">
+        <v>2363</v>
+      </c>
+      <c r="C151" s="12">
+        <v>122403901598</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>4057</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>4058</v>
+      </c>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="11">
+        <v>151</v>
+      </c>
+      <c r="B152" s="11">
+        <v>2368</v>
+      </c>
+      <c r="C152" s="12">
+        <v>112339691606</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>4060</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>4061</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="11">
+        <v>152</v>
+      </c>
+      <c r="B153" s="11">
+        <v>2372</v>
+      </c>
+      <c r="C153" s="12">
+        <v>122403930788</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>4064</v>
+      </c>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="11">
+        <v>153</v>
+      </c>
+      <c r="B154" s="11">
+        <v>2374</v>
+      </c>
+      <c r="C154" s="12">
+        <v>122403931808</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>4067</v>
+      </c>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11">
+        <v>154</v>
+      </c>
+      <c r="B155" s="11">
+        <v>2391</v>
+      </c>
+      <c r="C155" s="12">
+        <v>112339718215</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>4070</v>
+      </c>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="11">
+        <v>155</v>
+      </c>
+      <c r="B156" s="11">
+        <v>2392</v>
+      </c>
+      <c r="C156" s="12">
+        <v>122403962884</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>4072</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>4073</v>
+      </c>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="11">
+        <v>156</v>
+      </c>
+      <c r="B157" s="11">
+        <v>2393</v>
+      </c>
+      <c r="C157" s="12">
+        <v>112339720122</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>4075</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>4076</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="11">
+        <v>157</v>
+      </c>
+      <c r="B158" s="11">
+        <v>2395</v>
+      </c>
+      <c r="C158" s="12">
+        <v>112339721349</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>4078</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>4079</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="11">
+        <v>158</v>
+      </c>
+      <c r="B159" s="11">
+        <v>2399</v>
+      </c>
+      <c r="C159" s="12">
+        <v>122403966398</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>4081</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>4082</v>
+      </c>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="11">
+        <v>159</v>
+      </c>
+      <c r="B160" s="11">
+        <v>2468</v>
+      </c>
+      <c r="C160" s="12">
+        <v>112340263102</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>4085</v>
+      </c>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+      <c r="B161" s="11">
+        <v>2471</v>
+      </c>
+      <c r="C161" s="12">
+        <v>112340264031</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>4087</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>4088</v>
+      </c>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="11">
+        <v>161</v>
+      </c>
+      <c r="B162" s="11">
+        <v>2478</v>
+      </c>
+      <c r="C162" s="12">
+        <v>112340266391</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>4090</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>4091</v>
+      </c>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+      <c r="B163" s="11">
+        <v>2483</v>
+      </c>
+      <c r="C163" s="12">
+        <v>122404543991</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>4094</v>
+      </c>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="11">
+        <v>163</v>
+      </c>
+      <c r="B164" s="11">
+        <v>2489</v>
+      </c>
+      <c r="C164" s="12">
+        <v>122404547350</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>4096</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>4097</v>
+      </c>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="11">
+        <v>164</v>
+      </c>
+      <c r="B165" s="11">
+        <v>2490</v>
+      </c>
+      <c r="C165" s="12">
+        <v>122404547660</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>4099</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>4100</v>
+      </c>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+      <c r="B166" s="11">
+        <v>2503</v>
+      </c>
+      <c r="C166" s="12">
+        <v>122404557762</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>4102</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>4103</v>
+      </c>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="11">
+        <v>166</v>
+      </c>
+      <c r="B167" s="11">
+        <v>2519</v>
+      </c>
+      <c r="C167" s="12">
+        <v>112340324904</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>4105</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>4106</v>
+      </c>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+      <c r="B168" s="11">
+        <v>2704</v>
+      </c>
+      <c r="C168" s="12">
+        <v>112341874966</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>4108</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>4109</v>
+      </c>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+      <c r="B169" s="11">
+        <v>2709</v>
+      </c>
+      <c r="C169" s="12">
+        <v>122406740987</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>4111</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>4112</v>
+      </c>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+      <c r="B170" s="11">
+        <v>2712</v>
+      </c>
+      <c r="C170" s="12">
+        <v>122406742370</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>4114</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>4115</v>
+      </c>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+      <c r="B171" s="11">
+        <v>2718</v>
+      </c>
+      <c r="C171" s="12">
+        <v>122406746537</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>4117</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>4118</v>
+      </c>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+      <c r="B172" s="11">
+        <v>2722</v>
+      </c>
+      <c r="C172" s="12">
+        <v>112341884482</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>4120</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>4121</v>
+      </c>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="11">
+        <v>172</v>
+      </c>
+      <c r="B173" s="11">
+        <v>2733</v>
+      </c>
+      <c r="C173" s="12">
+        <v>122406831941</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>4123</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>4124</v>
+      </c>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+      <c r="B174" s="11">
+        <v>2755</v>
+      </c>
+      <c r="C174" s="12">
+        <v>112342467199</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>4126</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>4127</v>
+      </c>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="11">
+        <v>174</v>
+      </c>
+      <c r="B175" s="11">
+        <v>2782</v>
+      </c>
+      <c r="C175" s="12">
+        <v>112342494751</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>4129</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>4130</v>
+      </c>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="11">
+        <v>175</v>
+      </c>
+      <c r="B176" s="11">
+        <v>2787</v>
+      </c>
+      <c r="C176" s="12">
+        <v>112342502709</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>4132</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>4133</v>
+      </c>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>